--- a/tests/test_xls/sheet_txns_pivot/test_rows/test_rows_era_txntype/expected_result.xlsx
+++ b/tests/test_xls/sheet_txns_pivot/test_rows/test_rows_era_txntype/expected_result.xlsx
@@ -514,16 +514,16 @@
         </is>
       </c>
       <c r="C2" s="6" t="n">
-        <v>-241647.88</v>
+        <v>-245824.33</v>
       </c>
       <c r="D2" s="6" t="n">
-        <v>-235248.66</v>
+        <v>-245225.59</v>
       </c>
       <c r="E2" s="6" t="inlineStr"/>
       <c r="F2" s="6" t="inlineStr"/>
       <c r="G2" s="6" t="inlineStr"/>
       <c r="H2" s="6" t="n">
-        <v>-476896.54</v>
+        <v>-491049.92</v>
       </c>
     </row>
     <row r="3">
@@ -534,16 +534,16 @@
         </is>
       </c>
       <c r="C3" s="6" t="n">
-        <v>561651.05</v>
+        <v>591845.34</v>
       </c>
       <c r="D3" s="6" t="n">
-        <v>639158.25</v>
+        <v>585293.16</v>
       </c>
       <c r="E3" s="6" t="inlineStr"/>
       <c r="F3" s="6" t="inlineStr"/>
       <c r="G3" s="6" t="inlineStr"/>
       <c r="H3" s="6" t="n">
-        <v>1200809.3</v>
+        <v>1177138.5</v>
       </c>
     </row>
     <row r="4">
@@ -580,12 +580,12 @@
       <c r="C5" s="6" t="inlineStr"/>
       <c r="D5" s="6" t="inlineStr"/>
       <c r="E5" s="6" t="n">
-        <v>-237116.48</v>
+        <v>-237152.43</v>
       </c>
       <c r="F5" s="6" t="inlineStr"/>
       <c r="G5" s="6" t="inlineStr"/>
       <c r="H5" s="6" t="n">
-        <v>-237116.48</v>
+        <v>-237152.43</v>
       </c>
     </row>
     <row r="6">
@@ -598,12 +598,12 @@
       <c r="C6" s="6" t="inlineStr"/>
       <c r="D6" s="6" t="inlineStr"/>
       <c r="E6" s="6" t="n">
-        <v>636400.05</v>
+        <v>643798.41</v>
       </c>
       <c r="F6" s="6" t="inlineStr"/>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="n">
-        <v>636400.05</v>
+        <v>643798.41</v>
       </c>
     </row>
     <row r="7">
@@ -639,13 +639,13 @@
       <c r="D8" s="6" t="inlineStr"/>
       <c r="E8" s="6" t="inlineStr"/>
       <c r="F8" s="6" t="n">
-        <v>-233275.75</v>
+        <v>-265602.84</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-239724.68</v>
+        <v>-221532.92</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-473000.43</v>
+        <v>-487135.76</v>
       </c>
     </row>
     <row r="9">
@@ -659,13 +659,13 @@
       <c r="D9" s="6" t="inlineStr"/>
       <c r="E9" s="6" t="inlineStr"/>
       <c r="F9" s="6" t="n">
-        <v>721122.62</v>
+        <v>537409.59</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>566093.61</v>
+        <v>647993.1</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1287216.23</v>
+        <v>1185402.69</v>
       </c>
     </row>
     <row r="10">
@@ -696,22 +696,22 @@
       </c>
       <c r="B11" s="1" t="inlineStr"/>
       <c r="C11" s="7" t="n">
-        <v>320003.17</v>
+        <v>346021.01</v>
       </c>
       <c r="D11" s="7" t="n">
-        <v>403909.59</v>
+        <v>340067.57</v>
       </c>
       <c r="E11" s="7" t="n">
-        <v>399283.57</v>
+        <v>406645.98</v>
       </c>
       <c r="F11" s="7" t="n">
-        <v>487846.87</v>
+        <v>271806.75</v>
       </c>
       <c r="G11" s="7" t="n">
-        <v>326368.93</v>
+        <v>426460.18</v>
       </c>
       <c r="H11" s="7" t="n">
-        <v>1937412.13</v>
+        <v>1791001.49</v>
       </c>
     </row>
   </sheetData>
